--- a/Lösningar.xlsx
+++ b/Lösningar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontusmaniette/Documents/GitHub/Exjobb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97925458-4D53-E04F-83E0-0F729E090F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E94ED9-83A5-F44E-B092-2B678E0EA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{979EBE1B-0606-3748-B1A6-0F1C98DBEBCA}"/>
   </bookViews>

--- a/Lösningar.xlsx
+++ b/Lösningar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontusmaniette/Documents/GitHub/Exjobb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E94ED9-83A5-F44E-B092-2B678E0EA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97925458-4D53-E04F-83E0-0F729E090F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{979EBE1B-0606-3748-B1A6-0F1C98DBEBCA}"/>
   </bookViews>

--- a/Lösningar.xlsx
+++ b/Lösningar.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontusmaniette/Documents/GitHub/Exjobb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97925458-4D53-E04F-83E0-0F729E090F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA8CC8-1D24-DB40-8D83-000961E5F99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{979EBE1B-0606-3748-B1A6-0F1C98DBEBCA}"/>
+    <workbookView xWindow="1340" yWindow="500" windowWidth="15420" windowHeight="15980" activeTab="1" xr2:uid="{979EBE1B-0606-3748-B1A6-0F1C98DBEBCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard packaging" sheetId="2" r:id="rId1"/>
+    <sheet name="All packaging" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,19 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>Utilization</t>
   </si>
   <si>
     <t>Max antal emballage</t>
   </si>
+  <si>
+    <t>Waste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,14 +84,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -95,6 +110,824 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Standard packaging'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Standard packaging'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Standard packaging'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.5593899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3386700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7239100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2822400000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5133700000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7232599999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8743600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0156299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.11825E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1660099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2124700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2439199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2742099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2953499999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.30864E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3191800000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3231499999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-966A-594E-854C-53F54EB472AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590897039"/>
+        <c:axId val="590901871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590897039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590901871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590901871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590897039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All packaging'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'All packaging'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'All packaging'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.14604800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21051400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.241235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25698399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26682499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27425500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27909800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28213199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.284611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.286472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28775000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28877799999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28954299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28993099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC02-5B45-83DE-2BB85E864EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599211519"/>
+        <c:axId val="599213167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599211519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599213167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599213167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.12000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599211519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -635,6 +1468,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1151,7 +2064,1121 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF00F06B-09B3-6142-8EAB-938672706EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA98A58B-14DC-2045-A549-FFBE101F1061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1488,11 +3515,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E6FA42-AB25-E949-8697-6268DD3CCB2F}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.5593899999999998E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1-B2</f>
+        <v>0.96440610000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.3386700000000004E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C27" si="0">1-B3</f>
+        <v>0.93661329999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.7239100000000005E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9227609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.2822400000000004E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91717760000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.5133700000000007E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91486630000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.7232599999999993E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91276740000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.8743600000000006E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91125639999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.0156299999999995E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90984370000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.11825E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90881750000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.1660099999999994E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90833989999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.2124700000000004E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90787529999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.2439199999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90756079999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.2742099999999994E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90725790000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.2953499999999994E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90704649999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.30864E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90691359999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.3191800000000005E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90680819999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9.3231499999999995E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90676849999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C840B-FE88-8A47-A652-17EDF89ED097}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.14604800000000001</v>
+      </c>
+      <c r="C2">
+        <f>1-B2</f>
+        <v>0.85395200000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.21051400000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C15" si="0">1-B3</f>
+        <v>0.78948600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.241235</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.75876500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0.25698399999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.74301600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.26682499999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.73317500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0.27425500000000003</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.72574499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0.27909800000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.72090199999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0.28213199999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.71786799999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0.284611</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.71538900000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.286472</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.71352799999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>0.28775000000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.71225000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.28877799999999998</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.71122200000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>0.28954299999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.71045700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>0.28993099999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.71006900000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F29995-B851-E340-B055-499A2879F5D4}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Lösningar.xlsx
+++ b/Lösningar.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontusmaniette/Documents/GitHub/Exjobb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA8CC8-1D24-DB40-8D83-000961E5F99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C1DFF-0353-C347-B15F-2BCF67AA14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="500" windowWidth="15420" windowHeight="15980" activeTab="1" xr2:uid="{979EBE1B-0606-3748-B1A6-0F1C98DBEBCA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16060" firstSheet="2" activeTab="3" xr2:uid="{979EBE1B-0606-3748-B1A6-0F1C98DBEBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard packaging" sheetId="2" r:id="rId1"/>
     <sheet name="All packaging" sheetId="3" r:id="rId2"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
+    <sheet name="Standard packaging volume" sheetId="5" r:id="rId3"/>
+    <sheet name="All packaging volume" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Utilization</t>
   </si>
@@ -46,12 +47,15 @@
   <si>
     <t>Waste</t>
   </si>
+  <si>
+    <t>Average volume waste [m3]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +66,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,9 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,6 +136,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utilization: standard packaging</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -164,11 +201,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Standard packaging'!$B$1</c:f>
+              <c:f>'Standard packaging'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilization</c:v>
+                  <c:v>Waste</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -274,87 +311,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Standard packaging'!$B$2:$B$27</c:f>
+              <c:f>'Standard packaging'!$C$2:$C$27</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.5593899999999998E-2</c:v>
+                  <c:v>0.96440610000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3386700000000004E-2</c:v>
+                  <c:v>0.93661329999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7239100000000005E-2</c:v>
+                  <c:v>0.9227609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2822400000000004E-2</c:v>
+                  <c:v>0.91717760000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5133700000000007E-2</c:v>
+                  <c:v>0.91486630000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7232599999999993E-2</c:v>
+                  <c:v>0.91276740000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8743600000000006E-2</c:v>
+                  <c:v>0.91125639999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0156299999999995E-2</c:v>
+                  <c:v>0.90984370000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.11825E-2</c:v>
+                  <c:v>0.90881750000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1660099999999994E-2</c:v>
+                  <c:v>0.90833989999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2124700000000004E-2</c:v>
+                  <c:v>0.90787529999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2439199999999999E-2</c:v>
+                  <c:v>0.90756079999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2742099999999994E-2</c:v>
+                  <c:v>0.90725790000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.2953499999999994E-2</c:v>
+                  <c:v>0.90704649999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.30864E-2</c:v>
+                  <c:v>0.90691359999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.3191800000000005E-2</c:v>
+                  <c:v>0.90680819999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.3231499999999995E-2</c:v>
+                  <c:v>0.90676849999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,6 +435,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Maximum number of allowed packaging alternatives</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -443,7 +535,7 @@
         <c:axId val="590901871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3.0000000000000006E-2"/>
+          <c:min val="0.89000000000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -461,7 +553,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Cube utilization</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -569,6 +716,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Utilization: all packaging</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -609,11 +781,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'All packaging'!$B$1</c:f>
+              <c:f>'All packaging'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilization</c:v>
+                  <c:v>Waste</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,51 +855,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'All packaging'!$B$2:$B$15</c:f>
+              <c:f>'All packaging'!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.14604800000000001</c:v>
+                  <c:v>0.85395200000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21051400000000001</c:v>
+                  <c:v>0.78948600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.241235</c:v>
+                  <c:v>0.75876500000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25698399999999999</c:v>
+                  <c:v>0.74301600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26682499999999998</c:v>
+                  <c:v>0.73317500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27425500000000003</c:v>
+                  <c:v>0.72574499999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27909800000000001</c:v>
+                  <c:v>0.72090199999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28213199999999999</c:v>
+                  <c:v>0.71786799999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.284611</c:v>
+                  <c:v>0.71538900000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.286472</c:v>
+                  <c:v>0.71352799999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28775000000000001</c:v>
+                  <c:v>0.71225000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28877799999999998</c:v>
+                  <c:v>0.71122200000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28954299999999999</c:v>
+                  <c:v>0.71045700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28993099999999999</c:v>
+                  <c:v>0.71006900000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,6 +943,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Maximum number of allowed packaging alternatives</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -816,7 +1045,7 @@
         <c:axId val="599213167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.12000000000000001"/>
+          <c:min val="0.68000000000000016"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -834,7 +1063,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Cube utilization</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -961,14 +1245,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Efficient frontier of packaging</a:t>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Volume</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> combinations</a:t>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> waste: standard packaging</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1010,17 +1294,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Utilization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1035,84 +1308,174 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$A$2:$A$12</c:f>
+              <c:f>'Standard packaging volume'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>'Standard packaging volume'!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.6000200000000003E-2</c:v>
+                  <c:v>0.72246100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2552000000000001E-2</c:v>
+                  <c:v>0.45005899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1248499999999997E-2</c:v>
+                  <c:v>0.31591900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8500099999999994E-2</c:v>
+                  <c:v>0.282528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3513400000000007E-2</c:v>
+                  <c:v>0.26011899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7235699999999999E-2</c:v>
+                  <c:v>0.252855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2588400000000001E-2</c:v>
+                  <c:v>0.246253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4504299999999999E-2</c:v>
+                  <c:v>0.24163100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5022999999999996E-2</c:v>
+                  <c:v>0.23930100000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5038200000000003E-2</c:v>
+                  <c:v>0.237485</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5038200000000003E-2</c:v>
+                  <c:v>0.23591599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23475399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.233988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.233261</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23289799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23259299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23244799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23244799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1483,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1290-204E-9977-E42F139CE1DE}"/>
+              <c16:uniqueId val="{00000000-0FF2-D14C-B30A-E6C9643F621C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1132,13 +1495,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1732766672"/>
-        <c:axId val="1664918336"/>
+        <c:axId val="868050655"/>
+        <c:axId val="868052303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1732766672"/>
+        <c:axId val="868050655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1162,13 +1527,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1176,14 +1555,41 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Maximum</a:t>
+                  <a:rPr lang="sv-SE" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Maximum number of allowed packaging alternatives</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="sv-SE" baseline="0"/>
-                  <a:t> number of allowed packaging alternatives</a:t>
-                </a:r>
-                <a:endParaRPr lang="sv-SE"/>
+                <a:endParaRPr lang="sv-SE" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE" sz="700"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1199,13 +1605,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1253,16 +1673,16 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664918336"/>
+        <c:crossAx val="868052303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1664918336"/>
+        <c:axId val="868052303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.10500000000000001"/>
-          <c:min val="3.5000000000000003E-2"/>
+          <c:max val="0.8"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1300,9 +1720,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Utilization</a:t>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Average</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200" baseline="0"/>
+                  <a:t> volume waste [m3/unit]</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1372,7 +1797,629 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1732766672"/>
+        <c:crossAx val="868050655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Volume waste: All packaging</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'All packaging volume'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'All packaging volume'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.207847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11436300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6951700000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7063400000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0708400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7054600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4531900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2904100000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1674399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0834100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0316599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9979200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.97455E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9621599999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB4B-A64A-BBCE-1D7BD7E96068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="869919311"/>
+        <c:axId val="869893583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="869919311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Maximum number of allowed packaging alternatives</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE" sz="700"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869893583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="869893583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average volume waste [m3/unit]</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869919311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1548,6 +2595,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3096,20 +4183,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534811</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>153811</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>185560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3141,16 +4744,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560211</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>17639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179210</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>119239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3182,23 +4785,163 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A7CCCA-0A76-3249-A441-0F7930995BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA14774-B61D-C44D-9933-2B794ABE3FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="textruta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D78C9F-969A-4F44-B965-A5D1CD0ECF35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4787900" y="3467100"/>
+          <a:ext cx="4495800" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100"/>
+            <a:t>Volymen som all WIP för dessa artiklar utnyttjar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0"/>
+            <a:t> borde minska med ca 0.13 m3 för varje artikel WIP vid 10 lådalternativ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0"/>
+            <a:t>Alltså 1000 artiklar WIP ger 130 m3 mindre volym som krävs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0"/>
+            <a:t>100 artiklar WIP ger 13 m3 mindre volym som krävs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0"/>
+            <a:t>Sanningen är nog mellan dessa två, alltså 13 - 130 m3 mindre volym krävs.</a:t>
+          </a:r>
+          <a:endParaRPr lang="sv-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5100DB-712B-2045-A55B-A23977B41C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E6FA42-AB25-E949-8697-6268DD3CCB2F}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3857,8 +5600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20C840B-FE88-8A47-A652-17EDF89ED097}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3878,10 +5621,10 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.14604800000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>1-B2</f>
         <v>0.85395200000000004</v>
       </c>
@@ -3890,10 +5633,10 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.21051400000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C15" si="0">1-B3</f>
         <v>0.78948600000000002</v>
       </c>
@@ -3902,10 +5645,10 @@
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.241235</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>0.75876500000000002</v>
       </c>
@@ -3914,10 +5657,10 @@
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.25698399999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>0.74301600000000001</v>
       </c>
@@ -3926,10 +5669,10 @@
       <c r="A6">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.26682499999999998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>0.73317500000000002</v>
       </c>
@@ -3938,10 +5681,10 @@
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.27425500000000003</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>0.72574499999999997</v>
       </c>
@@ -3950,10 +5693,10 @@
       <c r="A8">
         <v>35</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.27909800000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>0.72090199999999993</v>
       </c>
@@ -3962,10 +5705,10 @@
       <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.28213199999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>0.71786799999999995</v>
       </c>
@@ -3974,10 +5717,10 @@
       <c r="A10">
         <v>45</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.284611</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>0.71538900000000005</v>
       </c>
@@ -3986,10 +5729,10 @@
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.286472</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>0.71352799999999994</v>
       </c>
@@ -3998,10 +5741,10 @@
       <c r="A12">
         <v>55</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.28775000000000001</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>0.71225000000000005</v>
       </c>
@@ -4010,10 +5753,10 @@
       <c r="A13">
         <v>60</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.28877799999999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>0.71122200000000002</v>
       </c>
@@ -4022,10 +5765,10 @@
       <c r="A14">
         <v>65</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.28954299999999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>0.71045700000000001</v>
       </c>
@@ -4034,10 +5777,10 @@
       <c r="A15">
         <v>70</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.28993099999999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>0.71006900000000006</v>
       </c>
@@ -4049,16 +5792,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F29995-B851-E340-B055-499A2879F5D4}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC91570-5B25-2348-BB3D-BD0D08D96DA3}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4066,63 +5810,298 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.72246100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.45005899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.31591900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.282528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.26011899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.252855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.246253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.24163100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.23930100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.237485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.23591599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.23475399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.233988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.233261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.23289799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.23259299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.23244799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28FFB15-DBD5-714E-B0AC-D9E04BB79594}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>3.6000200000000003E-2</v>
+        <v>0.207847</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>5.2552000000000001E-2</v>
+        <v>0.11436300000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>6.1248499999999997E-2</v>
+        <v>8.6951700000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>6.8500099999999994E-2</v>
+        <v>7.7063400000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>7.3513400000000007E-2</v>
+        <v>7.0708400000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>8.7235699999999999E-2</v>
+        <v>6.7054600000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>9.2588400000000001E-2</v>
+        <v>6.4531900000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4130,31 +6109,55 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>9.4504299999999999E-2</v>
+        <v>6.2904100000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>9.5022999999999996E-2</v>
+        <v>6.1674399999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>9.5038200000000003E-2</v>
+        <v>6.0834100000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>6.0316599999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>5.9979200000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>5.97455E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>70</v>
       </c>
-      <c r="B12">
-        <v>9.5038200000000003E-2</v>
+      <c r="B15">
+        <v>5.9621599999999997E-2</v>
       </c>
     </row>
   </sheetData>
